--- a/quizsheets/dsaide_vectortransmission.xlsx
+++ b/quizsheets/dsaide_vectortransmission.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,30 +365,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>AppTitle</t>
+          <t>TaskID</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>TaskID</t>
+          <t>RecordID</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>RecordID</t>
+          <t>Record</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Record</t>
+          <t>Note</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Note</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Answer</t>
         </is>
@@ -402,23 +397,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vector Transmission</t>
-        </is>
-      </c>
-      <c r="C2">
-        <v>2</v>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>T2R1</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>T2R1</t>
+          <t>Maximum/Peak number of infected human hosts</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
-        <is>
-          <t>Max number of infected hosts</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -432,23 +424,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vector Transmission</t>
-        </is>
-      </c>
-      <c r="C3">
-        <v>4</v>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>T3R1</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>T4R1</t>
+          <t>Value of R0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
-        <is>
-          <t>Max number of infected hosts (Part A)</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -462,23 +451,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vector Transmission</t>
-        </is>
-      </c>
-      <c r="C4">
-        <v>5</v>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>T4R1</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>T5R1</t>
+          <t>Value of R0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
-        <is>
-          <t>The number of months it takes for Sv to be 4000</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
@@ -492,23 +478,128 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vector Transmission</t>
-        </is>
-      </c>
-      <c r="C5">
-        <v>7</v>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>T4R2</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>T7R1</t>
+          <t>Total (cumulative) number of infected hosts</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Final number of suscepitble hosts at steady state</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+          <t>Report the rounded integer</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>dsaide_vectortransmission</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>T5R1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Value of R0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Report the rounded integer</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>dsaide_vectortransmission</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>T5R2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Total (cumulative) number of infected hosts</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Report the rounded integer</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>dsaide_vectortransmission</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>T6R1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Value of R0 from final size equation</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Report the rounded integer</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>dsaide_vectortransmission</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>T9R1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Final number of susceptible vectors at steady state</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Report the rounded integer</t>
         </is>
